--- a/statistics/HistoricalDistanceData/historical_distance/Q22241734-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q22241734-en.xlsx
@@ -31,24 +31,24 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Wall says La Loche school that was site of deadly shooting will be utilized</t>
+  </si>
+  <si>
+    <t>Court case for accused La Loche shooter adjourned</t>
+  </si>
+  <si>
     <t>Canada shootings: Four killed in Saskatchewan</t>
   </si>
   <si>
     <t>Trudeau arrives in La Loche, tells community to stand together after shooting</t>
   </si>
   <si>
-    <t>Wall says La Loche school that was site of deadly shooting will be utilized</t>
+    <t>Teen charged in deadly La Loche, Sask., shooting pleads guilty</t>
   </si>
   <si>
     <t>Saskatchewan will reach out to U.S. officials after La Loche shooting: Wall</t>
   </si>
   <si>
-    <t>Teen charged in deadly La Loche, Sask., shooting pleads guilty</t>
-  </si>
-  <si>
-    <t>Court case for accused La Loche shooter adjourned</t>
-  </si>
-  <si>
     <t>La Loche Community School to remain closed</t>
   </si>
   <si>
@@ -58,24 +58,24 @@
     <t>3 La Loche shooting victims released from hospital</t>
   </si>
   <si>
+    <t>2016-02-09T19:31:00UTC</t>
+  </si>
+  <si>
+    <t>2016-07-19T06:00:00UTC</t>
+  </si>
+  <si>
     <t>2016-01-23T08:36:34UTC</t>
   </si>
   <si>
     <t>2016-01-29T11:17:09UTC</t>
   </si>
   <si>
-    <t>2016-02-09T19:31:00UTC</t>
+    <t>2016-10-28T16:34:00UTC</t>
   </si>
   <si>
     <t>2016-01-24T08:29:00UTC</t>
   </si>
   <si>
-    <t>2016-10-28T16:34:00UTC</t>
-  </si>
-  <si>
-    <t>2016-07-19T06:00:00UTC</t>
-  </si>
-  <si>
     <t>2016-02-03T00:00:00UTC</t>
   </si>
   <si>
@@ -88,13 +88,19 @@
     <t>unknown</t>
   </si>
   <si>
+    <t>day_2_to_30</t>
+  </si>
+  <si>
+    <t>day_31_beyond</t>
+  </si>
+  <si>
     <t>day_1</t>
   </si>
   <si>
-    <t>day_2_to_30</t>
-  </si>
-  <si>
-    <t>day_31_beyond</t>
+    <t>http://saskatoon.ctvnews.ca/wall-says-la-loche-school-that-was-site-of-deadly-shooting-will-be-utilized-1.2771633</t>
+  </si>
+  <si>
+    <t>http://battlefordsnow.com/article/525319/court-case-accused-la-loche-shooter-adjourned</t>
   </si>
   <si>
     <t>https://www.bbc.com/news/world-us-canada-35388594?ns_mchannel=social&amp;ns_campaign=bbc_breaking&amp;ns_source=twitter&amp;ns_linkname=news_central</t>
@@ -103,16 +109,10 @@
     <t>http://globalnews.ca/news/2485895/trudeau-wall-head-to-la-loche-teachers-write-letter-to-students/</t>
   </si>
   <si>
-    <t>http://saskatoon.ctvnews.ca/wall-says-la-loche-school-that-was-site-of-deadly-shooting-will-be-utilized-1.2771633</t>
+    <t>http://www.cbc.ca/news/canada/saskatoon/court-appearance-la-loche-shooting-oct28-1.3825928</t>
   </si>
   <si>
     <t>http://www.ctvnews.ca/canada/saskatchewan-will-reach-out-to-u-s-officials-after-la-loche-shooting-wall-1.2749780</t>
-  </si>
-  <si>
-    <t>http://www.cbc.ca/news/canada/saskatoon/court-appearance-la-loche-shooting-oct28-1.3825928</t>
-  </si>
-  <si>
-    <t>http://battlefordsnow.com/article/525319/court-case-accused-la-loche-shooter-adjourned</t>
   </si>
   <si>
     <t>http://www.cbc.ca/news/canada/saskatoon/la-loche-community-school-to-remain-closed-1.3432711</t>
@@ -523,7 +523,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -540,7 +540,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -557,10 +557,10 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>29</v>
@@ -574,10 +574,10 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
@@ -594,7 +594,7 @@
         <v>280</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -628,7 +628,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>33</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>34</v>
